--- a/weapons_shields_table.xlsx
+++ b/weapons_shields_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge\Google Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B57FA78-5036-473A-9C4A-49E9E4B08C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="27075" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -64,11 +65,20 @@
   <si>
     <t>15</t>
   </si>
+  <si>
+    <t>Creature</t>
+  </si>
+  <si>
+    <t>SpecialName</t>
+  </si>
+  <si>
+    <t>SpecialText</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
@@ -122,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,15 +150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF8A612F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFE6D1B9"/>
@@ -157,76 +158,61 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE6D1B9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,9 +272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,98 +517,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="8"/>
+    <col min="9" max="9" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
